--- a/PerDiemTracker.xlsx
+++ b/PerDiemTracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xander/Dropbox/Work/CSDCO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xander/Dropbox/Work/CSDCO/PerDiemTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D953F041-9B68-B24D-9690-EB589FDC9A19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3468648F-43E1-6E4E-AE40-E0557F94B059}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="460" windowWidth="28300" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Description</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -330,19 +333,417 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -393,6 +794,33 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -425,6 +853,37 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -432,132 +891,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -603,13 +936,13 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -649,6 +982,12 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -687,6 +1026,100 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -707,436 +1140,6 @@
       </font>
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1248,29 +1251,29 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2BEDA781-7991-E447-AA78-2D9052380351}" name="Expenses3" displayName="Expenses3" ref="A1:H9" totalsRowCount="1" headerRowDxfId="37">
   <autoFilter ref="A1:H8" xr:uid="{56859435-88DE-674C-9DE4-22FB5A8AC350}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B309AD09-6444-6B40-808A-9DDD9A9FD0A6}" name="Date" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{D33EB5AD-B0DB-2044-ADAD-C122A5D3F4F1}" name="Time" dataDxfId="14" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{A34CE29B-A807-1944-99D0-8D68AEF60F09}" name="Description" dataDxfId="13" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{7D5FCAD1-E86F-CD40-B611-4A020F388F36}" name="Location" dataDxfId="12" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{5BCD9C72-3B48-8D4A-A647-825833A53F56}" name="Cost" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{D253AF17-4FCA-1840-BC39-76CF99E90A43}" name="Per Diem" dataDxfId="10" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{B309AD09-6444-6B40-808A-9DDD9A9FD0A6}" name="Date" totalsRowLabel="Total" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{D33EB5AD-B0DB-2044-ADAD-C122A5D3F4F1}" name="Time" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{A34CE29B-A807-1944-99D0-8D68AEF60F09}" name="Description" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{7D5FCAD1-E86F-CD40-B611-4A020F388F36}" name="Location" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{5BCD9C72-3B48-8D4A-A647-825833A53F56}" name="Cost" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{D253AF17-4FCA-1840-BC39-76CF99E90A43}" name="Per Diem" dataDxfId="26" totalsRowDxfId="25">
       <calculatedColumnFormula>IF(C2&lt;&gt;"",IF(NOT(ISNA(MATCH(C2,PerDiem8[Meal],0))),INDEX(IF(OR(Expenses3[[#This Row],[Date]]=TravelDates[Start Date],Expenses3[[#This Row],[Date]]=TravelDates[End Date]),PerDiem8[Travel],PerDiem8[Per Diem]),MATCH(C2,PerDiem8[Meal],0)),0),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BEF2A128-5214-F94F-8030-20BBF12DDF4E}" name="Difference" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="1">
+    <tableColumn id="7" xr3:uid="{BEF2A128-5214-F94F-8030-20BBF12DDF4E}" name="Difference" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>IF(E2&lt;&gt;"",F2-E2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3EDE61C7-D4C2-B841-8F8D-1706CD8AFFCE}" name="Card" dataDxfId="8" totalsRowDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{3EDE61C7-D4C2-B841-8F8D-1706CD8AFFCE}" name="Card" dataDxfId="22" totalsRowDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B88341B-2A1D-E44D-A02F-3EEF850509CD}" name="Days4" displayName="Days4" ref="J1:K10" totalsRowCount="1" headerRowDxfId="36" dataDxfId="34" totalsRowDxfId="32" headerRowBorderDxfId="35" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B88341B-2A1D-E44D-A02F-3EEF850509CD}" name="Days4" displayName="Days4" ref="J1:K10" totalsRowCount="1" headerRowDxfId="20" dataDxfId="18" totalsRowDxfId="16" headerRowBorderDxfId="19" tableBorderDxfId="17">
   <autoFilter ref="J1:K9" xr:uid="{619776C1-5A4B-9E40-8399-BF3D795AD82A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{681444F6-098E-4F4B-B96E-E569B2363DAA}" name="Day" totalsRowLabel="Total" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{32354CA3-7A53-CC4D-9949-49121A189DEA}" name="Per Diem" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="1" xr3:uid="{681444F6-098E-4F4B-B96E-E569B2363DAA}" name="Day" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{32354CA3-7A53-CC4D-9949-49121A189DEA}" name="Per Diem" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>IF(Days4[[#This Row],[Day]]&lt;&gt;"",IF(OR(Days4[[#This Row],[Day]]=TravelDates[Start Date],Days4[[#This Row],[Day]]=TravelDates[End Date]),PerDiem8[[#Totals],[Per Diem]]*0.75,PerDiem8[[#Totals],[Per Diem]]),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1279,12 +1282,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{016853A4-9DBB-484E-A7F0-B1098F89C936}" name="PerDiem8" displayName="PerDiem8" ref="M1:O6" totalsRowCount="1" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{016853A4-9DBB-484E-A7F0-B1098F89C936}" name="PerDiem8" displayName="PerDiem8" ref="M1:O6" totalsRowCount="1" headerRowDxfId="11">
   <autoFilter ref="M1:O5" xr:uid="{1110FDD3-9655-1948-9EF0-168ECF846618}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3C9910B7-1A7B-634A-9795-53AC5100A156}" name="Meal" totalsRowLabel="Total" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{FC7D367D-C3E8-E74E-85DC-51E4FCE91510}" name="Per Diem" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{C570EDD7-C701-F049-8659-8CA8FD3CC3AD}" name="Travel" totalsRowFunction="sum" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{3C9910B7-1A7B-634A-9795-53AC5100A156}" name="Meal" totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{FC7D367D-C3E8-E74E-85DC-51E4FCE91510}" name="Per Diem" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{C570EDD7-C701-F049-8659-8CA8FD3CC3AD}" name="Travel" totalsRowFunction="sum" dataDxfId="6">
       <calculatedColumnFormula>PerDiem8[[#This Row],[Per Diem]]*0.75</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1296,19 +1299,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7743352F-93FF-7F40-BE36-57E26254A63D}" name="TravelDates" displayName="TravelDates" ref="M8:N9" totalsRowShown="0">
   <autoFilter ref="M8:N9" xr:uid="{8CF91324-4BF5-BD4B-ACA3-9864E659F803}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1E56A8C4-37CA-1B4F-A4A5-87D76B08E02D}" name="Start Date" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{8C07A62D-8B59-9041-B6BD-5225E679F02A}" name="End Date" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{1E56A8C4-37CA-1B4F-A4A5-87D76B08E02D}" name="Start Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8C07A62D-8B59-9041-B6BD-5225E679F02A}" name="End Date" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7FF009D-AFF1-3744-AC77-E920B9DE2547}" name="Table1" displayName="Table1" ref="J12:K16" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7FF009D-AFF1-3744-AC77-E920B9DE2547}" name="Table1" displayName="Table1" ref="J12:K16" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="J12:K16" xr:uid="{120B8520-7BBE-284D-B813-A133D1B30602}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B1E34E49-6600-AF4B-9CD0-37549B247E55}" name="Card" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{F23BF23B-140D-4E4D-866E-AF83D995C404}" name="Spent" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{B1E34E49-6600-AF4B-9CD0-37549B247E55}" name="Card" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{F23BF23B-140D-4E4D-866E-AF83D995C404}" name="Spent" dataDxfId="0">
       <calculatedColumnFormula>SUMIF(Expenses3[Card],Table1[[#This Row],[Card]],Expenses3[Cost])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2426,7 +2429,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -2787,6 +2790,12 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="M11" s="21" t="s">
         <v>20</v>
       </c>
